--- a/iter.xlsx
+++ b/iter.xlsx
@@ -366,339 +366,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>4</v>
-      </c>
-      <c r="E1">
-        <v>8</v>
-      </c>
-      <c r="F1">
-        <v>16</v>
-      </c>
-      <c r="G1">
-        <v>32</v>
-      </c>
-      <c r="H1">
-        <v>64</v>
-      </c>
-      <c r="I1">
-        <v>128</v>
-      </c>
-      <c r="J1">
-        <v>256</v>
-      </c>
-      <c r="K1">
-        <v>512</v>
-      </c>
-      <c r="L1">
-        <v>1024</v>
-      </c>
-      <c r="M1">
         <v>2048</v>
       </c>
-      <c r="N1">
-        <v>4096</v>
-      </c>
-      <c r="O1">
-        <v>8192</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.1426164448498678</v>
-      </c>
-      <c r="C2">
-        <v>0.1425268390686096</v>
-      </c>
-      <c r="D2">
-        <v>0.1428304470454355</v>
-      </c>
-      <c r="E2">
-        <v>0.14289371553695</v>
-      </c>
-      <c r="F2">
-        <v>0.1428573402953517</v>
-      </c>
-      <c r="G2">
-        <v>0.1430091017572288</v>
-      </c>
-      <c r="H2">
-        <v>0.1450033441054105</v>
-      </c>
-      <c r="I2">
-        <v>0.1781426790197057</v>
-      </c>
-      <c r="J2">
-        <v>0.4713285056658189</v>
-      </c>
-      <c r="K2">
-        <v>0.7332495983282603</v>
-      </c>
-      <c r="L2">
-        <v>0.7817332785611945</v>
-      </c>
-      <c r="M2">
-        <v>0.8195556482709748</v>
-      </c>
-      <c r="N2">
-        <v>0.8395055760803531</v>
-      </c>
-      <c r="O2">
-        <v>0.8404448644109958</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.775397716947176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.1002212176589401</v>
-      </c>
-      <c r="C3">
-        <v>0.1009906703856882</v>
-      </c>
-      <c r="D3">
-        <v>0.1014715783399057</v>
-      </c>
-      <c r="E3">
-        <v>0.101231124362797</v>
-      </c>
-      <c r="F3">
-        <v>0.101231124362797</v>
-      </c>
-      <c r="G3">
-        <v>0.1031547561796672</v>
-      </c>
-      <c r="H3">
-        <v>0.1063287486775031</v>
-      </c>
-      <c r="I3">
-        <v>0.1492257381937097</v>
-      </c>
-      <c r="J3">
-        <v>0.4933634702317976</v>
-      </c>
-      <c r="K3">
-        <v>0.7846494181013755</v>
-      </c>
-      <c r="L3">
-        <v>0.841348465903626</v>
-      </c>
-      <c r="M3">
-        <v>0.8772241992882562</v>
-      </c>
-      <c r="N3">
-        <v>0.8904538341158059</v>
-      </c>
-      <c r="O3">
-        <v>0.8901606232567086</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.813936712513225</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.7581982905022566</v>
-      </c>
-      <c r="C4">
-        <v>0.7656182913110542</v>
-      </c>
-      <c r="D4">
-        <v>0.7586550364196729</v>
-      </c>
-      <c r="E4">
-        <v>0.7559514867164545</v>
-      </c>
-      <c r="F4">
-        <v>0.7647855561694893</v>
-      </c>
-      <c r="G4">
-        <v>0.757353314460077</v>
-      </c>
-      <c r="H4">
-        <v>0.750661942575008</v>
-      </c>
-      <c r="I4">
-        <v>0.728554173407214</v>
-      </c>
-      <c r="J4">
-        <v>0.4838099034381285</v>
-      </c>
-      <c r="K4">
-        <v>0.2726438462346861</v>
-      </c>
-      <c r="L4">
-        <v>0.2179712024460219</v>
-      </c>
-      <c r="M4">
-        <v>0.1707591649741386</v>
-      </c>
-      <c r="N4">
-        <v>0.1503499816551729</v>
-      </c>
-      <c r="O4">
-        <v>0.1529027026750216</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.2312775053910086</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.8934307973453881</v>
-      </c>
-      <c r="C5">
-        <v>0.9034817735885352</v>
-      </c>
-      <c r="D5">
-        <v>0.894248340867558</v>
-      </c>
-      <c r="E5">
-        <v>0.8905453496200827</v>
-      </c>
-      <c r="F5">
-        <v>0.9031451380205828</v>
-      </c>
-      <c r="G5">
-        <v>0.8930460709820141</v>
-      </c>
-      <c r="H5">
-        <v>0.8841492738289891</v>
-      </c>
-      <c r="I5">
-        <v>0.8614985091853419</v>
-      </c>
-      <c r="J5">
-        <v>0.5314994710012504</v>
-      </c>
-      <c r="K5">
-        <v>0.2518995864191594</v>
-      </c>
-      <c r="L5">
-        <v>0.1825526594209868</v>
-      </c>
-      <c r="M5">
-        <v>0.140088487063576</v>
-      </c>
-      <c r="N5">
-        <v>0.1178524136270615</v>
-      </c>
-      <c r="O5">
-        <v>0.1226796191209003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.2134750408771761</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.9959436253231329</v>
-      </c>
-      <c r="C6">
-        <v>0.9969652520342338</v>
-      </c>
-      <c r="D6">
-        <v>0.9964347160642731</v>
-      </c>
-      <c r="E6">
-        <v>0.9961707898560145</v>
-      </c>
-      <c r="F6">
-        <v>0.9949919459218934</v>
-      </c>
-      <c r="G6">
-        <v>0.9899173963292148</v>
-      </c>
-      <c r="H6">
-        <v>0.9746656518034497</v>
-      </c>
-      <c r="I6">
-        <v>0.9356174917850252</v>
-      </c>
-      <c r="J6">
-        <v>0.8814697016816804</v>
-      </c>
-      <c r="K6">
-        <v>0.841958181846746</v>
-      </c>
-      <c r="L6">
-        <v>0.8194091057092369</v>
-      </c>
-      <c r="M6">
-        <v>0.8094389702909103</v>
-      </c>
-      <c r="N6">
-        <v>0.7973424662088937</v>
-      </c>
-      <c r="O6">
-        <v>0.7900690194027583</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.9841478037481771</v>
-      </c>
-      <c r="C7">
-        <v>0.9841630119771065</v>
-      </c>
-      <c r="D7">
-        <v>0.9841529242572182</v>
-      </c>
-      <c r="E7">
-        <v>0.9841503764269944</v>
-      </c>
-      <c r="F7">
-        <v>0.9840958549915692</v>
-      </c>
-      <c r="G7">
-        <v>0.9837727445987904</v>
-      </c>
-      <c r="H7">
-        <v>0.9829701467889941</v>
-      </c>
-      <c r="I7">
-        <v>0.9805750539920396</v>
-      </c>
-      <c r="J7">
-        <v>0.9760738020402538</v>
-      </c>
-      <c r="K7">
-        <v>0.9749236720690746</v>
-      </c>
-      <c r="L7">
-        <v>0.9752266289962933</v>
-      </c>
-      <c r="M7">
-        <v>0.9756556370225812</v>
-      </c>
-      <c r="N7">
-        <v>0.9758397075318012</v>
-      </c>
-      <c r="O7">
-        <v>0.9764197064947148</v>
+        <v>0.979353057402602</v>
       </c>
     </row>
   </sheetData>
